--- a/biology/Botanique/Cleistanthus/Cleistanthus.xlsx
+++ b/biology/Botanique/Cleistanthus/Cleistanthus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cleistanthus est un genre de plantes à fleurs de la famille des Phyllanthaceae.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,11 +551,13 @@
           <t>Liste des espèces, sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (24 juillet 2017)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (24 juillet 2017) :
 Cleistanthus micranthus Croizat
-Selon Catalogue of Life                                   (24 juillet 2017)[3] :
+Selon Catalogue of Life                                   (24 juillet 2017) :
 Cleistanthus acuminatus (Thwaites) Müll.Arg.
 Cleistanthus andamanicus N.Balach., Gastmans &amp; Chakrab.
 Cleistanthus angustifolius Merr.
@@ -676,14 +692,14 @@
 Cleistanthus xanthopus Airy Shaw
 Cleistanthus xerophilus Domin
 Cleistanthus zenkeri Jabl.
-Selon GRIN            (24 juillet 2017)[4] :
+Selon GRIN            (24 juillet 2017) :
 Cleistanthus collinus (Roxb.) Hook. f.
 Cleistanthus monoicus (Lour.) Müll. Arg.
-Selon ITIS      (24 juillet 2017)[5] :
+Selon ITIS      (24 juillet 2017) :
 Cleistanthus carolinianus Jabl.
 Cleistanthus insularis Kaneh.
 Cleistanthus morii Kaneh.
-Selon World Checklist of Selected Plant Families (WCSP)  (24 juillet 2017)[6] :
+Selon World Checklist of Selected Plant Families (WCSP)  (24 juillet 2017) :
 Cleistanthus acuminatus (Thwaites) Müll.Arg. (1866)
 Cleistanthus andamanicus N.Balach., Gastmans &amp; Chakrab. (2010)
 Cleistanthus angustifolius Merr., Philipp. J. Sci. (1912 publ. 1913)
@@ -826,7 +842,7 @@
 Cleistanthus xanthopus Airy Shaw (1966 publ. 1867)
 Cleistanthus xerophilus Domin (1927)
 Cleistanthus zenkeri Jabl. (1915)
-Selon NCBI  (24 juillet 2017)[7] :
+Selon NCBI  (24 juillet 2017) :
 Cleistanthus collinus
 Cleistanthus concinnus
 Cleistanthus cunninghamii
@@ -840,7 +856,7 @@
 Cleistanthus suarezensis
 Cleistanthus sumatranus
 Cleistanthus tomentosus
-Selon The Plant List            (24 juillet 2017)[8] :
+Selon The Plant List            (24 juillet 2017) :
 Cleistanthus acuminatus (Thwaites) Müll.Arg.
 Cleistanthus andamanicus N.Balach., Gastmans &amp; Chakrab.
 Cleistanthus angustifolius Merr.
@@ -974,7 +990,7 @@
 Cleistanthus xanthopus Airy Shaw
 Cleistanthus xerophilus Domin
 Cleistanthus zenkeri Jabl.
-Selon Tropicos                                           (24 juillet 2017)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (24 juillet 2017) (Attention liste brute contenant possiblement des synonymes) :
 Cleistanthus acuminatissimus Merr.
 Cleistanthus acuminatus (Thwaites) Müll. Arg.
 Cleistanthus albidiscus Ridl.
